--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -2388,8 +2388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="points" localSheetId="0">Лист1!$A$1:$E$51</definedName>
     <definedName name="points_1" localSheetId="0">Лист1!$B$2:$F$41</definedName>
   </definedNames>
   <calcPr calcId="162913" refMode="R1C1"/>
@@ -39,28 +40,36 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="2" name="points1" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="866" sourceFile="D:\VisCode\лабы\Labs_Gayanov.A-1\points.txt" decimal="," thousands=" " space="1" consecutive="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>txln</t>
-  </si>
-  <si>
-    <t>tyln</t>
-  </si>
-  <si>
-    <t>txlin</t>
-  </si>
-  <si>
-    <t>tylin</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>n</t>
   </si>
   <si>
-    <t>ln</t>
+    <t>tx_kv</t>
+  </si>
+  <si>
+    <t>ty_kv</t>
+  </si>
+  <si>
+    <t>tx_lin</t>
+  </si>
+  <si>
+    <t>ty_lin</t>
   </si>
 </sst>
 </file>
@@ -159,124 +168,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15000</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20000</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30000</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35000</c:v>
+                  <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40000</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45000</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55000</c:v>
+                  <c:v>110000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60000</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65000</c:v>
+                  <c:v>130000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>70000</c:v>
+                  <c:v>140000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>75000</c:v>
+                  <c:v>150000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80000</c:v>
+                  <c:v>160000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>85000</c:v>
+                  <c:v>170000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>90000</c:v>
+                  <c:v>180000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>95000</c:v>
+                  <c:v>190000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100000</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>105000</c:v>
+                  <c:v>210000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>110000</c:v>
+                  <c:v>220000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>115000</c:v>
+                  <c:v>230000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>120000</c:v>
+                  <c:v>240000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>125000</c:v>
+                  <c:v>250000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>130000</c:v>
+                  <c:v>260000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>135000</c:v>
+                  <c:v>270000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>140000</c:v>
+                  <c:v>280000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>145000</c:v>
+                  <c:v>290000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>150000</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>155000</c:v>
+                  <c:v>310000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>160000</c:v>
+                  <c:v>320000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>165000</c:v>
+                  <c:v>330000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>170000</c:v>
+                  <c:v>340000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>175000</c:v>
+                  <c:v>350000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>180000</c:v>
+                  <c:v>360000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>185000</c:v>
+                  <c:v>370000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>190000</c:v>
+                  <c:v>380000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>195000</c:v>
+                  <c:v>390000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>200000</c:v>
+                  <c:v>400000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -287,126 +296,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>84</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -430,124 +319,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15000</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20000</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30000</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35000</c:v>
+                  <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40000</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45000</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55000</c:v>
+                  <c:v>110000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60000</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65000</c:v>
+                  <c:v>130000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>70000</c:v>
+                  <c:v>140000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>75000</c:v>
+                  <c:v>150000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80000</c:v>
+                  <c:v>160000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>85000</c:v>
+                  <c:v>170000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>90000</c:v>
+                  <c:v>180000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>95000</c:v>
+                  <c:v>190000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100000</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>105000</c:v>
+                  <c:v>210000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>110000</c:v>
+                  <c:v>220000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>115000</c:v>
+                  <c:v>230000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>120000</c:v>
+                  <c:v>240000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>125000</c:v>
+                  <c:v>250000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>130000</c:v>
+                  <c:v>260000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>135000</c:v>
+                  <c:v>270000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>140000</c:v>
+                  <c:v>280000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>145000</c:v>
+                  <c:v>290000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>150000</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>155000</c:v>
+                  <c:v>310000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>160000</c:v>
+                  <c:v>320000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>165000</c:v>
+                  <c:v>330000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>170000</c:v>
+                  <c:v>340000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>175000</c:v>
+                  <c:v>350000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>180000</c:v>
+                  <c:v>360000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>185000</c:v>
+                  <c:v>370000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>190000</c:v>
+                  <c:v>380000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>195000</c:v>
+                  <c:v>390000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>200000</c:v>
+                  <c:v>400000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -558,126 +447,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>170</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -701,124 +470,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15000</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20000</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30000</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35000</c:v>
+                  <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40000</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45000</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55000</c:v>
+                  <c:v>110000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60000</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65000</c:v>
+                  <c:v>130000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>70000</c:v>
+                  <c:v>140000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>75000</c:v>
+                  <c:v>150000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80000</c:v>
+                  <c:v>160000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>85000</c:v>
+                  <c:v>170000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>90000</c:v>
+                  <c:v>180000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>95000</c:v>
+                  <c:v>190000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100000</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>105000</c:v>
+                  <c:v>210000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>110000</c:v>
+                  <c:v>220000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>115000</c:v>
+                  <c:v>230000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>120000</c:v>
+                  <c:v>240000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>125000</c:v>
+                  <c:v>250000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>130000</c:v>
+                  <c:v>260000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>135000</c:v>
+                  <c:v>270000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>140000</c:v>
+                  <c:v>280000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>145000</c:v>
+                  <c:v>290000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>150000</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>155000</c:v>
+                  <c:v>310000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>160000</c:v>
+                  <c:v>320000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>165000</c:v>
+                  <c:v>330000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>170000</c:v>
+                  <c:v>340000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>175000</c:v>
+                  <c:v>350000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>180000</c:v>
+                  <c:v>360000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>185000</c:v>
+                  <c:v>370000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>190000</c:v>
+                  <c:v>380000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>195000</c:v>
+                  <c:v>390000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>200000</c:v>
+                  <c:v>400000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -861,124 +630,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15000</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20000</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30000</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35000</c:v>
+                  <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40000</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45000</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55000</c:v>
+                  <c:v>110000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60000</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65000</c:v>
+                  <c:v>130000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>70000</c:v>
+                  <c:v>140000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>75000</c:v>
+                  <c:v>150000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80000</c:v>
+                  <c:v>160000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>85000</c:v>
+                  <c:v>170000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>90000</c:v>
+                  <c:v>180000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>95000</c:v>
+                  <c:v>190000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100000</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>105000</c:v>
+                  <c:v>210000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>110000</c:v>
+                  <c:v>220000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>115000</c:v>
+                  <c:v>230000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>120000</c:v>
+                  <c:v>240000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>125000</c:v>
+                  <c:v>250000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>130000</c:v>
+                  <c:v>260000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>135000</c:v>
+                  <c:v>270000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>140000</c:v>
+                  <c:v>280000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>145000</c:v>
+                  <c:v>290000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>150000</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>155000</c:v>
+                  <c:v>310000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>160000</c:v>
+                  <c:v>320000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>165000</c:v>
+                  <c:v>330000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>170000</c:v>
+                  <c:v>340000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>175000</c:v>
+                  <c:v>350000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>180000</c:v>
+                  <c:v>360000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>185000</c:v>
+                  <c:v>370000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>190000</c:v>
+                  <c:v>380000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>195000</c:v>
+                  <c:v>390000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>200000</c:v>
+                  <c:v>400000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -989,126 +758,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>84</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1141,124 +790,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15000</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20000</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30000</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35000</c:v>
+                  <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40000</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45000</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55000</c:v>
+                  <c:v>110000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60000</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65000</c:v>
+                  <c:v>130000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>70000</c:v>
+                  <c:v>140000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>75000</c:v>
+                  <c:v>150000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80000</c:v>
+                  <c:v>160000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>85000</c:v>
+                  <c:v>170000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>90000</c:v>
+                  <c:v>180000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>95000</c:v>
+                  <c:v>190000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100000</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>105000</c:v>
+                  <c:v>210000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>110000</c:v>
+                  <c:v>220000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>115000</c:v>
+                  <c:v>230000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>120000</c:v>
+                  <c:v>240000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>125000</c:v>
+                  <c:v>250000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>130000</c:v>
+                  <c:v>260000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>135000</c:v>
+                  <c:v>270000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>140000</c:v>
+                  <c:v>280000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>145000</c:v>
+                  <c:v>290000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>150000</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>155000</c:v>
+                  <c:v>310000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>160000</c:v>
+                  <c:v>320000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>165000</c:v>
+                  <c:v>330000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>170000</c:v>
+                  <c:v>340000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>175000</c:v>
+                  <c:v>350000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>180000</c:v>
+                  <c:v>360000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>185000</c:v>
+                  <c:v>370000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>190000</c:v>
+                  <c:v>380000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>195000</c:v>
+                  <c:v>390000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>200000</c:v>
+                  <c:v>400000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1269,126 +918,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>170</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1421,124 +950,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15000</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20000</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30000</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35000</c:v>
+                  <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40000</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45000</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55000</c:v>
+                  <c:v>110000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60000</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65000</c:v>
+                  <c:v>130000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>70000</c:v>
+                  <c:v>140000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>75000</c:v>
+                  <c:v>150000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80000</c:v>
+                  <c:v>160000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>85000</c:v>
+                  <c:v>170000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>90000</c:v>
+                  <c:v>180000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>95000</c:v>
+                  <c:v>190000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100000</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>105000</c:v>
+                  <c:v>210000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>110000</c:v>
+                  <c:v>220000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>115000</c:v>
+                  <c:v>230000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>120000</c:v>
+                  <c:v>240000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>125000</c:v>
+                  <c:v>250000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>130000</c:v>
+                  <c:v>260000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>135000</c:v>
+                  <c:v>270000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>140000</c:v>
+                  <c:v>280000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>145000</c:v>
+                  <c:v>290000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>150000</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>155000</c:v>
+                  <c:v>310000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>160000</c:v>
+                  <c:v>320000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>165000</c:v>
+                  <c:v>330000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>170000</c:v>
+                  <c:v>340000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>175000</c:v>
+                  <c:v>350000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>180000</c:v>
+                  <c:v>360000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>185000</c:v>
+                  <c:v>370000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>190000</c:v>
+                  <c:v>380000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>195000</c:v>
+                  <c:v>390000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>200000</c:v>
+                  <c:v>400000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1572,124 +1101,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15000</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20000</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30000</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35000</c:v>
+                  <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40000</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45000</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55000</c:v>
+                  <c:v>110000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60000</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65000</c:v>
+                  <c:v>130000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>70000</c:v>
+                  <c:v>140000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>75000</c:v>
+                  <c:v>150000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80000</c:v>
+                  <c:v>160000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>85000</c:v>
+                  <c:v>170000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>90000</c:v>
+                  <c:v>180000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>95000</c:v>
+                  <c:v>190000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100000</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>105000</c:v>
+                  <c:v>210000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>110000</c:v>
+                  <c:v>220000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>115000</c:v>
+                  <c:v>230000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>120000</c:v>
+                  <c:v>240000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>125000</c:v>
+                  <c:v>250000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>130000</c:v>
+                  <c:v>260000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>135000</c:v>
+                  <c:v>270000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>140000</c:v>
+                  <c:v>280000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>145000</c:v>
+                  <c:v>290000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>150000</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>155000</c:v>
+                  <c:v>310000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>160000</c:v>
+                  <c:v>320000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>165000</c:v>
+                  <c:v>330000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>170000</c:v>
+                  <c:v>340000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>175000</c:v>
+                  <c:v>350000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>180000</c:v>
+                  <c:v>360000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>185000</c:v>
+                  <c:v>370000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>190000</c:v>
+                  <c:v>380000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>195000</c:v>
+                  <c:v>390000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>200000</c:v>
+                  <c:v>400000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1700,126 +1229,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>84</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1843,124 +1252,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15000</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20000</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30000</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35000</c:v>
+                  <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40000</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45000</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55000</c:v>
+                  <c:v>110000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60000</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65000</c:v>
+                  <c:v>130000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>70000</c:v>
+                  <c:v>140000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>75000</c:v>
+                  <c:v>150000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80000</c:v>
+                  <c:v>160000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>85000</c:v>
+                  <c:v>170000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>90000</c:v>
+                  <c:v>180000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>95000</c:v>
+                  <c:v>190000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100000</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>105000</c:v>
+                  <c:v>210000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>110000</c:v>
+                  <c:v>220000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>115000</c:v>
+                  <c:v>230000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>120000</c:v>
+                  <c:v>240000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>125000</c:v>
+                  <c:v>250000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>130000</c:v>
+                  <c:v>260000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>135000</c:v>
+                  <c:v>270000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>140000</c:v>
+                  <c:v>280000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>145000</c:v>
+                  <c:v>290000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>150000</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>155000</c:v>
+                  <c:v>310000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>160000</c:v>
+                  <c:v>320000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>165000</c:v>
+                  <c:v>330000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>170000</c:v>
+                  <c:v>340000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>175000</c:v>
+                  <c:v>350000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>180000</c:v>
+                  <c:v>360000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>185000</c:v>
+                  <c:v>370000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>190000</c:v>
+                  <c:v>380000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>195000</c:v>
+                  <c:v>390000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>200000</c:v>
+                  <c:v>400000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1971,126 +1380,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>170</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2114,124 +1403,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15000</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20000</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30000</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35000</c:v>
+                  <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40000</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45000</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55000</c:v>
+                  <c:v>110000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60000</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65000</c:v>
+                  <c:v>130000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>70000</c:v>
+                  <c:v>140000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>75000</c:v>
+                  <c:v>150000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80000</c:v>
+                  <c:v>160000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>85000</c:v>
+                  <c:v>170000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>90000</c:v>
+                  <c:v>180000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>95000</c:v>
+                  <c:v>190000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100000</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>105000</c:v>
+                  <c:v>210000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>110000</c:v>
+                  <c:v>220000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>115000</c:v>
+                  <c:v>230000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>120000</c:v>
+                  <c:v>240000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>125000</c:v>
+                  <c:v>250000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>130000</c:v>
+                  <c:v>260000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>135000</c:v>
+                  <c:v>270000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>140000</c:v>
+                  <c:v>280000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>145000</c:v>
+                  <c:v>290000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>150000</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>155000</c:v>
+                  <c:v>310000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>160000</c:v>
+                  <c:v>320000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>165000</c:v>
+                  <c:v>330000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>170000</c:v>
+                  <c:v>340000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>175000</c:v>
+                  <c:v>350000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>180000</c:v>
+                  <c:v>360000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>185000</c:v>
+                  <c:v>370000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>190000</c:v>
+                  <c:v>380000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>195000</c:v>
+                  <c:v>390000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>200000</c:v>
+                  <c:v>400000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2289,124 +1578,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15000</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20000</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30000</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35000</c:v>
+                  <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40000</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45000</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55000</c:v>
+                  <c:v>110000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60000</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65000</c:v>
+                  <c:v>130000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>70000</c:v>
+                  <c:v>140000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>75000</c:v>
+                  <c:v>150000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80000</c:v>
+                  <c:v>160000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>85000</c:v>
+                  <c:v>170000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>90000</c:v>
+                  <c:v>180000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>95000</c:v>
+                  <c:v>190000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100000</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>105000</c:v>
+                  <c:v>210000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>110000</c:v>
+                  <c:v>220000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>115000</c:v>
+                  <c:v>230000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>120000</c:v>
+                  <c:v>240000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>125000</c:v>
+                  <c:v>250000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>130000</c:v>
+                  <c:v>260000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>135000</c:v>
+                  <c:v>270000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>140000</c:v>
+                  <c:v>280000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>145000</c:v>
+                  <c:v>290000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>150000</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>155000</c:v>
+                  <c:v>310000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>160000</c:v>
+                  <c:v>320000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>165000</c:v>
+                  <c:v>330000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>170000</c:v>
+                  <c:v>340000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>175000</c:v>
+                  <c:v>350000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>180000</c:v>
+                  <c:v>360000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>185000</c:v>
+                  <c:v>370000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>190000</c:v>
+                  <c:v>380000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>195000</c:v>
+                  <c:v>390000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>200000</c:v>
+                  <c:v>400000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2417,126 +1706,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>84</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2584,124 +1753,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15000</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20000</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30000</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35000</c:v>
+                  <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40000</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45000</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55000</c:v>
+                  <c:v>110000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60000</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65000</c:v>
+                  <c:v>130000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>70000</c:v>
+                  <c:v>140000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>75000</c:v>
+                  <c:v>150000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80000</c:v>
+                  <c:v>160000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>85000</c:v>
+                  <c:v>170000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>90000</c:v>
+                  <c:v>180000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>95000</c:v>
+                  <c:v>190000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100000</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>105000</c:v>
+                  <c:v>210000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>110000</c:v>
+                  <c:v>220000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>115000</c:v>
+                  <c:v>230000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>120000</c:v>
+                  <c:v>240000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>125000</c:v>
+                  <c:v>250000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>130000</c:v>
+                  <c:v>260000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>135000</c:v>
+                  <c:v>270000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>140000</c:v>
+                  <c:v>280000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>145000</c:v>
+                  <c:v>290000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>150000</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>155000</c:v>
+                  <c:v>310000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>160000</c:v>
+                  <c:v>320000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>165000</c:v>
+                  <c:v>330000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>170000</c:v>
+                  <c:v>340000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>175000</c:v>
+                  <c:v>350000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>180000</c:v>
+                  <c:v>360000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>185000</c:v>
+                  <c:v>370000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>190000</c:v>
+                  <c:v>380000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>195000</c:v>
+                  <c:v>390000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>200000</c:v>
+                  <c:v>400000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2712,126 +1881,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>170</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2879,124 +1928,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15000</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20000</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30000</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35000</c:v>
+                  <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40000</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45000</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55000</c:v>
+                  <c:v>110000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60000</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65000</c:v>
+                  <c:v>130000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>70000</c:v>
+                  <c:v>140000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>75000</c:v>
+                  <c:v>150000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80000</c:v>
+                  <c:v>160000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>85000</c:v>
+                  <c:v>170000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>90000</c:v>
+                  <c:v>180000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>95000</c:v>
+                  <c:v>190000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100000</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>105000</c:v>
+                  <c:v>210000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>110000</c:v>
+                  <c:v>220000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>115000</c:v>
+                  <c:v>230000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>120000</c:v>
+                  <c:v>240000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>125000</c:v>
+                  <c:v>250000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>130000</c:v>
+                  <c:v>260000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>135000</c:v>
+                  <c:v>270000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>140000</c:v>
+                  <c:v>280000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>145000</c:v>
+                  <c:v>290000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>150000</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>155000</c:v>
+                  <c:v>310000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>160000</c:v>
+                  <c:v>320000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>165000</c:v>
+                  <c:v>330000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>170000</c:v>
+                  <c:v>340000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>175000</c:v>
+                  <c:v>350000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>180000</c:v>
+                  <c:v>360000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>185000</c:v>
+                  <c:v>370000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>190000</c:v>
+                  <c:v>380000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>195000</c:v>
+                  <c:v>390000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>200000</c:v>
+                  <c:v>400000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3357,263 +2406,320 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>txln</c:v>
-          </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$41</c:f>
+              <c:f>Лист1!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15000</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20000</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30000</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35000</c:v>
+                  <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40000</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45000</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55000</c:v>
+                  <c:v>110000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60000</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65000</c:v>
+                  <c:v>130000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>70000</c:v>
+                  <c:v>140000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>75000</c:v>
+                  <c:v>150000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80000</c:v>
+                  <c:v>160000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>85000</c:v>
+                  <c:v>170000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>90000</c:v>
+                  <c:v>180000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>95000</c:v>
+                  <c:v>190000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100000</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>105000</c:v>
+                  <c:v>210000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>110000</c:v>
+                  <c:v>220000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>115000</c:v>
+                  <c:v>230000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>120000</c:v>
+                  <c:v>240000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>125000</c:v>
+                  <c:v>250000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>130000</c:v>
+                  <c:v>260000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>135000</c:v>
+                  <c:v>270000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>140000</c:v>
+                  <c:v>280000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>145000</c:v>
+                  <c:v>290000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>150000</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>155000</c:v>
+                  <c:v>310000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>160000</c:v>
+                  <c:v>320000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>165000</c:v>
+                  <c:v>330000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>170000</c:v>
+                  <c:v>340000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>175000</c:v>
+                  <c:v>350000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>180000</c:v>
+                  <c:v>360000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>185000</c:v>
+                  <c:v>370000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>190000</c:v>
+                  <c:v>380000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>195000</c:v>
+                  <c:v>390000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>200000</c:v>
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>420000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>430000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>440000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>450000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>460000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>470000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>480000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>490000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>500000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$41</c:f>
+              <c:f>Лист1!$B$2:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>101</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>112</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>115</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>117</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>118</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>120</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>122</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>125</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>124</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>125</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>128</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>128</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>128</c:v>
+                  <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>131</c:v>
+                  <c:v>271</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>131</c:v>
+                  <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>131</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>132</c:v>
+                  <c:v>305</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>132</c:v>
+                  <c:v>326</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>133</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>133</c:v>
+                  <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>135</c:v>
+                  <c:v>376</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>134</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>135</c:v>
+                  <c:v>401</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>136</c:v>
+                  <c:v>425</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>137</c:v>
+                  <c:v>451</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>138</c:v>
+                  <c:v>464</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>139</c:v>
+                  <c:v>481</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>139</c:v>
+                  <c:v>523</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>140</c:v>
+                  <c:v>508</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>140</c:v>
+                  <c:v>522</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>141</c:v>
+                  <c:v>540</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>142</c:v>
+                  <c:v>572</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>142</c:v>
+                  <c:v>589</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>143</c:v>
+                  <c:v>593</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>144</c:v>
+                  <c:v>601</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>145</c:v>
+                  <c:v>618</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>144</c:v>
+                  <c:v>637</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>145</c:v>
+                  <c:v>688</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>146</c:v>
+                  <c:v>698</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>686</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>702</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>719</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>755</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>791</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>813</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>906</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>880</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3638,124 +2744,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15000</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20000</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30000</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35000</c:v>
+                  <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40000</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45000</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55000</c:v>
+                  <c:v>110000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60000</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65000</c:v>
+                  <c:v>130000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>70000</c:v>
+                  <c:v>140000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>75000</c:v>
+                  <c:v>150000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80000</c:v>
+                  <c:v>160000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>85000</c:v>
+                  <c:v>170000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>90000</c:v>
+                  <c:v>180000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>95000</c:v>
+                  <c:v>190000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100000</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>105000</c:v>
+                  <c:v>210000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>110000</c:v>
+                  <c:v>220000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>115000</c:v>
+                  <c:v>230000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>120000</c:v>
+                  <c:v>240000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>125000</c:v>
+                  <c:v>250000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>130000</c:v>
+                  <c:v>260000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>135000</c:v>
+                  <c:v>270000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>140000</c:v>
+                  <c:v>280000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>145000</c:v>
+                  <c:v>290000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>150000</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>155000</c:v>
+                  <c:v>310000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>160000</c:v>
+                  <c:v>320000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>165000</c:v>
+                  <c:v>330000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>170000</c:v>
+                  <c:v>340000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>175000</c:v>
+                  <c:v>350000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>180000</c:v>
+                  <c:v>360000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>185000</c:v>
+                  <c:v>370000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>190000</c:v>
+                  <c:v>380000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>195000</c:v>
+                  <c:v>390000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>200000</c:v>
+                  <c:v>400000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3766,126 +2872,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>82</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4231,6 +3217,10 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="points" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="points_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -4497,719 +3487,434 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" customWidth="1"/>
+    <col min="2" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="B2">
-        <v>101</v>
-      </c>
-      <c r="C2">
-        <v>51</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="B3">
-        <v>108</v>
-      </c>
-      <c r="C3">
-        <v>53</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="B4">
-        <v>112</v>
-      </c>
-      <c r="C4">
-        <v>54</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="B5">
-        <v>115</v>
-      </c>
-      <c r="C5">
-        <v>56</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="B6">
-        <v>117</v>
-      </c>
-      <c r="C6">
-        <v>56</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="B7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>70000</v>
+      </c>
+      <c r="B8">
         <v>118</v>
       </c>
-      <c r="C7">
-        <v>56</v>
-      </c>
-      <c r="D7">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>35000</v>
-      </c>
-      <c r="B8">
-        <v>120</v>
-      </c>
-      <c r="C8">
-        <v>59</v>
-      </c>
-      <c r="D8">
-        <v>14</v>
-      </c>
-      <c r="E8">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="B9">
-        <v>122</v>
-      </c>
-      <c r="C9">
-        <v>60</v>
-      </c>
-      <c r="D9">
-        <v>16</v>
-      </c>
-      <c r="E9">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>45000</v>
+        <v>90000</v>
       </c>
       <c r="B10">
-        <v>125</v>
-      </c>
-      <c r="C10">
-        <v>60</v>
-      </c>
-      <c r="D10">
-        <v>19</v>
-      </c>
-      <c r="E10">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="B11">
-        <v>124</v>
-      </c>
-      <c r="C11">
-        <v>58</v>
-      </c>
-      <c r="D11">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>55000</v>
+        <v>110000</v>
       </c>
       <c r="B12">
-        <v>125</v>
-      </c>
-      <c r="C12">
-        <v>59</v>
-      </c>
-      <c r="D12">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="B13">
-        <v>128</v>
-      </c>
-      <c r="C13">
-        <v>60</v>
-      </c>
-      <c r="D13">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>65000</v>
+        <v>130000</v>
       </c>
       <c r="B14">
-        <v>128</v>
-      </c>
-      <c r="C14">
-        <v>64</v>
-      </c>
-      <c r="D14">
-        <v>27</v>
-      </c>
-      <c r="E14">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>70000</v>
+        <v>140000</v>
       </c>
       <c r="B15">
-        <v>128</v>
-      </c>
-      <c r="C15">
-        <v>62</v>
-      </c>
-      <c r="D15">
-        <v>29</v>
-      </c>
-      <c r="E15">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>75000</v>
+        <v>150000</v>
       </c>
       <c r="B16">
-        <v>131</v>
-      </c>
-      <c r="C16">
-        <v>64</v>
-      </c>
-      <c r="D16">
-        <v>32</v>
-      </c>
-      <c r="E16">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>80000</v>
+        <v>160000</v>
       </c>
       <c r="B17">
-        <v>131</v>
-      </c>
-      <c r="C17">
-        <v>65</v>
-      </c>
-      <c r="D17">
-        <v>33</v>
-      </c>
-      <c r="E17">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>85000</v>
+        <v>170000</v>
       </c>
       <c r="B18">
-        <v>131</v>
-      </c>
-      <c r="C18">
-        <v>62</v>
-      </c>
-      <c r="D18">
-        <v>36</v>
-      </c>
-      <c r="E18">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>90000</v>
+        <v>180000</v>
       </c>
       <c r="B19">
-        <v>132</v>
-      </c>
-      <c r="C19">
-        <v>63</v>
-      </c>
-      <c r="D19">
-        <v>38</v>
-      </c>
-      <c r="E19">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>95000</v>
+        <v>190000</v>
       </c>
       <c r="B20">
-        <v>132</v>
-      </c>
-      <c r="C20">
-        <v>62</v>
-      </c>
-      <c r="D20">
-        <v>40</v>
-      </c>
-      <c r="E20">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="B21">
-        <v>133</v>
-      </c>
-      <c r="C21">
-        <v>62</v>
-      </c>
-      <c r="D21">
-        <v>42</v>
-      </c>
-      <c r="E21">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>105000</v>
+        <v>210000</v>
       </c>
       <c r="B22">
-        <v>133</v>
-      </c>
-      <c r="C22">
-        <v>64</v>
-      </c>
-      <c r="D22">
-        <v>44</v>
-      </c>
-      <c r="E22">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>110000</v>
+        <v>220000</v>
       </c>
       <c r="B23">
-        <v>135</v>
-      </c>
-      <c r="C23">
-        <v>64</v>
-      </c>
-      <c r="D23">
-        <v>46</v>
-      </c>
-      <c r="E23">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>115000</v>
+        <v>230000</v>
       </c>
       <c r="B24">
-        <v>134</v>
-      </c>
-      <c r="C24">
-        <v>65</v>
-      </c>
-      <c r="D24">
-        <v>48</v>
-      </c>
-      <c r="E24">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>120000</v>
+        <v>240000</v>
       </c>
       <c r="B25">
-        <v>135</v>
-      </c>
-      <c r="C25">
-        <v>69</v>
-      </c>
-      <c r="D25">
-        <v>50</v>
-      </c>
-      <c r="E25">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>125000</v>
+        <v>250000</v>
       </c>
       <c r="B26">
-        <v>136</v>
-      </c>
-      <c r="C26">
-        <v>68</v>
-      </c>
-      <c r="D26">
-        <v>52</v>
-      </c>
-      <c r="E26">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>130000</v>
+        <v>260000</v>
       </c>
       <c r="B27">
-        <v>137</v>
-      </c>
-      <c r="C27">
-        <v>68</v>
-      </c>
-      <c r="D27">
-        <v>54</v>
-      </c>
-      <c r="E27">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>135000</v>
+        <v>270000</v>
       </c>
       <c r="B28">
-        <v>138</v>
-      </c>
-      <c r="C28">
-        <v>73</v>
-      </c>
-      <c r="D28">
-        <v>57</v>
-      </c>
-      <c r="E28">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>140000</v>
+        <v>280000</v>
       </c>
       <c r="B29">
-        <v>139</v>
-      </c>
-      <c r="C29">
-        <v>70</v>
-      </c>
-      <c r="D29">
-        <v>59</v>
-      </c>
-      <c r="E29">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>145000</v>
+        <v>290000</v>
       </c>
       <c r="B30">
-        <v>139</v>
-      </c>
-      <c r="C30">
-        <v>70</v>
-      </c>
-      <c r="D30">
-        <v>61</v>
-      </c>
-      <c r="E30">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>150000</v>
+        <v>300000</v>
       </c>
       <c r="B31">
-        <v>140</v>
-      </c>
-      <c r="C31">
-        <v>71</v>
-      </c>
-      <c r="D31">
-        <v>63</v>
-      </c>
-      <c r="E31">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>155000</v>
+        <v>310000</v>
       </c>
       <c r="B32">
-        <v>140</v>
-      </c>
-      <c r="C32">
-        <v>75</v>
-      </c>
-      <c r="D32">
-        <v>65</v>
-      </c>
-      <c r="E32">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>160000</v>
+        <v>320000</v>
       </c>
       <c r="B33">
-        <v>141</v>
-      </c>
-      <c r="C33">
-        <v>73</v>
-      </c>
-      <c r="D33">
-        <v>67</v>
-      </c>
-      <c r="E33">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>165000</v>
+        <v>330000</v>
       </c>
       <c r="B34">
-        <v>142</v>
-      </c>
-      <c r="C34">
-        <v>78</v>
-      </c>
-      <c r="D34">
-        <v>69</v>
-      </c>
-      <c r="E34">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>170000</v>
+        <v>340000</v>
       </c>
       <c r="B35">
-        <v>142</v>
-      </c>
-      <c r="C35">
-        <v>79</v>
-      </c>
-      <c r="D35">
-        <v>71</v>
-      </c>
-      <c r="E35">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>175000</v>
+        <v>350000</v>
       </c>
       <c r="B36">
-        <v>143</v>
-      </c>
-      <c r="C36">
-        <v>81</v>
-      </c>
-      <c r="D36">
-        <v>73</v>
-      </c>
-      <c r="E36">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>180000</v>
+        <v>360000</v>
       </c>
       <c r="B37">
-        <v>144</v>
-      </c>
-      <c r="C37">
-        <v>83</v>
-      </c>
-      <c r="D37">
-        <v>76</v>
-      </c>
-      <c r="E37">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>185000</v>
+        <v>370000</v>
       </c>
       <c r="B38">
-        <v>145</v>
-      </c>
-      <c r="C38">
-        <v>83</v>
-      </c>
-      <c r="D38">
-        <v>78</v>
-      </c>
-      <c r="E38">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>190000</v>
+        <v>380000</v>
       </c>
       <c r="B39">
-        <v>144</v>
-      </c>
-      <c r="C39">
-        <v>82</v>
-      </c>
-      <c r="D39">
-        <v>80</v>
-      </c>
-      <c r="E39">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>195000</v>
+        <v>390000</v>
       </c>
       <c r="B40">
-        <v>145</v>
-      </c>
-      <c r="C40">
-        <v>85</v>
-      </c>
-      <c r="D40">
-        <v>82</v>
-      </c>
-      <c r="E40">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="B41">
-        <v>146</v>
-      </c>
-      <c r="C41">
-        <v>82</v>
-      </c>
-      <c r="D41">
-        <v>84</v>
-      </c>
-      <c r="E41">
-        <v>170</v>
+        <v>698</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>410000</v>
+      </c>
+      <c r="B42">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>420000</v>
+      </c>
+      <c r="B43">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>430000</v>
+      </c>
+      <c r="B44">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>440000</v>
+      </c>
+      <c r="B45">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>450000</v>
+      </c>
+      <c r="B46">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>460000</v>
+      </c>
+      <c r="B47">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>470000</v>
+      </c>
+      <c r="B48">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>480000</v>
+      </c>
+      <c r="B49">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>490000</v>
+      </c>
+      <c r="B50">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>500000</v>
+      </c>
+      <c r="B51">
+        <v>880</v>
       </c>
     </row>
   </sheetData>
